--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H2">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I2">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J2">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>1901.645563166896</v>
+        <v>1936.992843129577</v>
       </c>
       <c r="R2">
-        <v>1901.645563166896</v>
+        <v>17432.93558816619</v>
       </c>
       <c r="S2">
-        <v>0.02251157881038021</v>
+        <v>0.02262800047834104</v>
       </c>
       <c r="T2">
-        <v>0.02251157881038021</v>
+        <v>0.02262800047834103</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H3">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I3">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J3">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>2024.190576866006</v>
+        <v>2041.662209578868</v>
       </c>
       <c r="R3">
-        <v>2024.190576866006</v>
+        <v>18374.95988620981</v>
       </c>
       <c r="S3">
-        <v>0.02396226015034162</v>
+        <v>0.02385075072364165</v>
       </c>
       <c r="T3">
-        <v>0.02396226015034162</v>
+        <v>0.02385075072364164</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H4">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I4">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J4">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>1305.24864148618</v>
+        <v>1319.095703149786</v>
       </c>
       <c r="R4">
-        <v>1305.24864148618</v>
+        <v>11871.86132834808</v>
       </c>
       <c r="S4">
-        <v>0.01545146384220237</v>
+        <v>0.01540971011210609</v>
       </c>
       <c r="T4">
-        <v>0.01545146384220237</v>
+        <v>0.01540971011210609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H5">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I5">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J5">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>1012.061693649378</v>
+        <v>1028.861687125112</v>
       </c>
       <c r="R5">
-        <v>1012.061693649378</v>
+        <v>9259.755184126003</v>
       </c>
       <c r="S5">
-        <v>0.01198073238191301</v>
+        <v>0.0120191888323133</v>
       </c>
       <c r="T5">
-        <v>0.01198073238191301</v>
+        <v>0.0120191888323133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H6">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I6">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J6">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>669.0720496400826</v>
+        <v>706.7597038175421</v>
       </c>
       <c r="R6">
-        <v>669.0720496400826</v>
+        <v>6360.837334357879</v>
       </c>
       <c r="S6">
-        <v>0.007920439259044745</v>
+        <v>0.008256385134710421</v>
       </c>
       <c r="T6">
-        <v>0.007920439259044745</v>
+        <v>0.008256385134710421</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H7">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I7">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J7">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>6927.826188411994</v>
+        <v>7018.114910587519</v>
       </c>
       <c r="R7">
-        <v>6927.826188411994</v>
+        <v>63163.03419528768</v>
       </c>
       <c r="S7">
-        <v>0.0820112371336599</v>
+        <v>0.08198579985316098</v>
       </c>
       <c r="T7">
-        <v>0.0820112371336599</v>
+        <v>0.08198579985316098</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H8">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I8">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J8">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>7374.266141054993</v>
+        <v>7397.353091030491</v>
       </c>
       <c r="R8">
-        <v>7374.266141054993</v>
+        <v>66576.17781927442</v>
       </c>
       <c r="S8">
-        <v>0.08729616949576025</v>
+        <v>0.08641607008307256</v>
       </c>
       <c r="T8">
-        <v>0.08729616949576025</v>
+        <v>0.08641607008307256</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H9">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I9">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J9">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>4755.110992301948</v>
+        <v>4779.349214223271</v>
       </c>
       <c r="R9">
-        <v>4755.110992301948</v>
+        <v>43014.14292800945</v>
       </c>
       <c r="S9">
-        <v>0.05629075045774755</v>
+        <v>0.0558324811003798</v>
       </c>
       <c r="T9">
-        <v>0.05629075045774755</v>
+        <v>0.05583248110037981</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H10">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I10">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J10">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>3687.010682409384</v>
+        <v>3727.772961555514</v>
       </c>
       <c r="R10">
-        <v>3687.010682409384</v>
+        <v>33549.95665399962</v>
       </c>
       <c r="S10">
-        <v>0.04364663592386176</v>
+        <v>0.04354794012606589</v>
       </c>
       <c r="T10">
-        <v>0.04364663592386176</v>
+        <v>0.04354794012606589</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H11">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I11">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J11">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>2437.475709044235</v>
+        <v>2560.732649662402</v>
       </c>
       <c r="R11">
-        <v>2437.475709044235</v>
+        <v>23046.59384696162</v>
       </c>
       <c r="S11">
-        <v>0.02885470751508331</v>
+        <v>0.0299145450263226</v>
       </c>
       <c r="T11">
-        <v>0.02885470751508331</v>
+        <v>0.0299145450263226</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H12">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I12">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J12">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>6809.048786062304</v>
+        <v>6894.968899817288</v>
       </c>
       <c r="R12">
-        <v>6809.048786062304</v>
+        <v>62054.72009835559</v>
       </c>
       <c r="S12">
-        <v>0.08060515657602203</v>
+        <v>0.08054720497115182</v>
       </c>
       <c r="T12">
-        <v>0.08060515657602203</v>
+        <v>0.08054720497115181</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H13">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I13">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J13">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>7247.834537165324</v>
+        <v>7267.552633924127</v>
       </c>
       <c r="R13">
-        <v>7247.834537165324</v>
+        <v>65407.97370531715</v>
       </c>
       <c r="S13">
-        <v>0.08579947890829599</v>
+        <v>0.08489973778690042</v>
       </c>
       <c r="T13">
-        <v>0.08579947890829599</v>
+        <v>0.08489973778690041</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H14">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I14">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J14">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>4673.584736274509</v>
+        <v>4695.48655347921</v>
       </c>
       <c r="R14">
-        <v>4673.584736274509</v>
+        <v>42259.3789813129</v>
       </c>
       <c r="S14">
-        <v>0.05532564698461633</v>
+        <v>0.05485279532912751</v>
       </c>
       <c r="T14">
-        <v>0.05532564698461633</v>
+        <v>0.05485279532912751</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H15">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I15">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J15">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>3623.796978805697</v>
+        <v>3662.362181720581</v>
       </c>
       <c r="R15">
-        <v>3623.796978805697</v>
+        <v>32961.25963548524</v>
       </c>
       <c r="S15">
-        <v>0.04289831547018027</v>
+        <v>0.04278380970470507</v>
       </c>
       <c r="T15">
-        <v>0.04289831547018027</v>
+        <v>0.04278380970470506</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H16">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I16">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J16">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>2395.685250516997</v>
+        <v>2515.799784573619</v>
       </c>
       <c r="R16">
-        <v>2395.685250516997</v>
+        <v>22642.19806116257</v>
       </c>
       <c r="S16">
-        <v>0.02835999429466008</v>
+        <v>0.02938963813452454</v>
       </c>
       <c r="T16">
-        <v>0.02835999429466008</v>
+        <v>0.02938963813452454</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H17">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I17">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J17">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>6505.211065113687</v>
+        <v>6578.293603259666</v>
       </c>
       <c r="R17">
-        <v>6505.211065113687</v>
+        <v>59204.64242933699</v>
       </c>
       <c r="S17">
-        <v>0.07700834183136984</v>
+        <v>0.07684779596847989</v>
       </c>
       <c r="T17">
-        <v>0.07700834183136984</v>
+        <v>0.07684779596847989</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H18">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I18">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J18">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>6924.41703836686</v>
+        <v>6933.765140603158</v>
       </c>
       <c r="R18">
-        <v>6924.41703836686</v>
+        <v>62403.88626542842</v>
       </c>
       <c r="S18">
-        <v>0.08197087979714886</v>
+        <v>0.08100042365916831</v>
       </c>
       <c r="T18">
-        <v>0.08197087979714886</v>
+        <v>0.08100042365916831</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H19">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I19">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J19">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>4465.037055159847</v>
+        <v>4479.830091730012</v>
       </c>
       <c r="R19">
-        <v>4465.037055159847</v>
+        <v>40318.47082557011</v>
       </c>
       <c r="S19">
-        <v>0.0528568706521244</v>
+        <v>0.05233349096673563</v>
       </c>
       <c r="T19">
-        <v>0.0528568706521244</v>
+        <v>0.05233349096673565</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H20">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I20">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J20">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>3462.093597053669</v>
+        <v>3494.155530341992</v>
       </c>
       <c r="R20">
-        <v>3462.093597053669</v>
+        <v>31447.39977307793</v>
       </c>
       <c r="S20">
-        <v>0.0409840794565282</v>
+        <v>0.04081881525397428</v>
       </c>
       <c r="T20">
-        <v>0.0409840794565282</v>
+        <v>0.04081881525397428</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H21">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I21">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J21">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N21">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q21">
-        <v>2288.783454172511</v>
+        <v>2400.252977265965</v>
       </c>
       <c r="R21">
-        <v>2288.783454172511</v>
+        <v>21602.27679539369</v>
       </c>
       <c r="S21">
-        <v>0.02709449652788781</v>
+        <v>0.02803981734385812</v>
       </c>
       <c r="T21">
-        <v>0.02709449652788781</v>
+        <v>0.02803981734385812</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H22">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I22">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J22">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N22">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q22">
-        <v>1096.247586023174</v>
+        <v>1146.334131840623</v>
       </c>
       <c r="R22">
-        <v>1096.247586023174</v>
+        <v>10317.00718656561</v>
       </c>
       <c r="S22">
-        <v>0.01297732048834164</v>
+        <v>0.0133915049689696</v>
       </c>
       <c r="T22">
-        <v>0.01297732048834164</v>
+        <v>0.0133915049689696</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H23">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I23">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J23">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N23">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q23">
-        <v>1166.891494672009</v>
+        <v>1208.278639144582</v>
       </c>
       <c r="R23">
-        <v>1166.891494672009</v>
+        <v>10874.50775230124</v>
       </c>
       <c r="S23">
-        <v>0.01381359931328373</v>
+        <v>0.01411514230499604</v>
       </c>
       <c r="T23">
-        <v>0.01381359931328373</v>
+        <v>0.01411514230499604</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H24">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I24">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J24">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N24">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q24">
-        <v>752.440780818456</v>
+        <v>780.6556606795638</v>
       </c>
       <c r="R24">
-        <v>752.440780818456</v>
+        <v>7025.900946116074</v>
       </c>
       <c r="S24">
-        <v>0.008907353854800381</v>
+        <v>0.009119639613503266</v>
       </c>
       <c r="T24">
-        <v>0.008907353854800381</v>
+        <v>0.009119639613503268</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H25">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I25">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J25">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N25">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q25">
-        <v>583.4263808456526</v>
+        <v>608.8919084435385</v>
       </c>
       <c r="R25">
-        <v>583.4263808456526</v>
+        <v>5480.027175991846</v>
       </c>
       <c r="S25">
-        <v>0.006906570397161402</v>
+        <v>0.007113091018579816</v>
       </c>
       <c r="T25">
-        <v>0.006906570397161402</v>
+        <v>0.007113091018579816</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H26">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I26">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J26">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N26">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q26">
-        <v>385.7020643068938</v>
+        <v>418.2683350479577</v>
       </c>
       <c r="R26">
-        <v>385.7020643068938</v>
+        <v>3764.415015431619</v>
       </c>
       <c r="S26">
-        <v>0.004565920477584256</v>
+        <v>0.00488622150521129</v>
       </c>
       <c r="T26">
-        <v>0.004565920477584256</v>
+        <v>0.00488622150521129</v>
       </c>
     </row>
   </sheetData>
